--- a/data/trans_dic/P13A_1_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P13A_1_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.9529154854843094</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9596649888064887</v>
+        <v>0.9596649888064889</v>
       </c>
     </row>
     <row r="5">
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.7750376025233242</v>
+        <v>0.7833726294349233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8051979961415495</v>
+        <v>0.7717452481368859</v>
       </c>
     </row>
     <row r="6">
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9586091654591037</v>
+        <v>0.9586091654591035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9679836858997838</v>
+        <v>0.967983685899784</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.8890635104117751</v>
+        <v>0.8785068745921654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9089616201062958</v>
+        <v>0.9009982543010199</v>
       </c>
     </row>
     <row r="15">
@@ -734,10 +734,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.990993438155779</v>
+        <v>0.9906978291215052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9929288927110328</v>
+        <v>0.9931559164489061</v>
       </c>
     </row>
     <row r="16">
@@ -755,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9239583403093522</v>
+        <v>0.9239583403093523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9373062133699337</v>
+        <v>0.9373062133699335</v>
       </c>
     </row>
     <row r="17">
@@ -770,10 +770,10 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.8220654889893052</v>
+        <v>0.8270155296379882</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8561482568993177</v>
+        <v>0.8426292173387185</v>
       </c>
     </row>
     <row r="18">
@@ -785,10 +785,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.975605050813357</v>
+        <v>0.9725685763780352</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9767281784103867</v>
+        <v>0.9753524365712344</v>
       </c>
     </row>
     <row r="19">
@@ -852,7 +852,7 @@
         <v>0.95730011855089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9658344648972016</v>
+        <v>0.9658344648972014</v>
       </c>
     </row>
     <row r="23">
@@ -864,10 +864,10 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.9180854945193319</v>
+        <v>0.9160709743094516</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9331802883689331</v>
+        <v>0.932010649108674</v>
       </c>
     </row>
     <row r="24">
@@ -879,10 +879,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.9783887696796069</v>
+        <v>0.9781031820490853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9843942117410727</v>
+        <v>0.9843146851865454</v>
       </c>
     </row>
     <row r="25">
@@ -1027,10 +1027,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>11622</v>
+        <v>11747</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14095</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="7">
@@ -1215,10 +1215,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>40315</v>
+        <v>39836</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>53285</v>
+        <v>52818</v>
       </c>
     </row>
     <row r="19">
@@ -1230,10 +1230,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>44937</v>
+        <v>44923</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58207</v>
+        <v>58221</v>
       </c>
     </row>
     <row r="20">
@@ -1283,10 +1283,10 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>45826</v>
+        <v>46102</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>57888</v>
+        <v>56974</v>
       </c>
     </row>
     <row r="23">
@@ -1298,10 +1298,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>54385</v>
+        <v>54216</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66040</v>
+        <v>65947</v>
       </c>
     </row>
     <row r="24">
@@ -1411,10 +1411,10 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>146677</v>
+        <v>146355</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>186330</v>
+        <v>186096</v>
       </c>
     </row>
     <row r="31">
@@ -1426,10 +1426,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>156311</v>
+        <v>156266</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>196556</v>
+        <v>196540</v>
       </c>
     </row>
     <row r="32">
